--- a/RawData/s02/Label.xlsx
+++ b/RawData/s02/Label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source code and tutorial\CUIJINERDATA\s02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CUIJINERDATA\s02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5143B5D9-A447-4C29-9A6D-210C8377799B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C6E978-5F1A-48F0-B3B1-AED6278C7079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="2010" windowWidth="14440" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
   <si>
     <t>Arousal</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,14 @@
   </si>
   <si>
     <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chainese</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,202 +510,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I37" sqref="I2:I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
       <c r="I5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -705,33 +695,33 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -740,406 +730,406 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1147,126 +1137,126 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H29">
         <v>5</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>9</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -1277,192 +1267,192 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34">
         <v>8</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="1">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34">
-        <v>9</v>
-      </c>
-      <c r="I34">
-        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H36">
         <v>3</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1470,92 +1460,118 @@
       <c r="D38" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1">
+        <v>36</v>
+      </c>
       <c r="G38" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I38">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I40">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" t="s">
         <v>29</v>
       </c>
-      <c r="H41">
-        <v>9</v>
-      </c>
-      <c r="I41">
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:I41">
-    <sortCondition ref="F2:F41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:I42">
+    <sortCondition ref="F3:F42"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
